--- a/task_instructions.xlsx
+++ b/task_instructions.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28016"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxcurran/Desktop/Research/Projects/Realtime Passthoughts/chi-18-stimuli/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ffff/Projects/chi-18-stimuli/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="440" windowWidth="21140" windowHeight="15720" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,14 +29,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
-    <t>Next, please repeat this task. The instructions are the same.
-Press the button on the clicker when you're ready to begin.</t>
-  </si>
-  <si>
-    <t>For this task, please keep your eyes open, look at the cross on the screen, and focus on your breathing. You may blink normally. Breathe at a speed that is comfortable for you, and try to relax as best you can.
-The task will last 10 seconds.
-Before you start, do a short practice now. Breathe with your eyes open, relaxing your mind as you do. Do this for a few seconds.
-Press the button on the clicker when you're ready to begin.</t>
+    <t>breatheclosed_instructions_text</t>
+  </si>
+  <si>
+    <t>word_x_instructions_text</t>
+  </si>
+  <si>
+    <t>word_c_instructions_text</t>
+  </si>
+  <si>
+    <t>phrase_x_instructions_text</t>
+  </si>
+  <si>
+    <t>phrase_c_instructions_text</t>
+  </si>
+  <si>
+    <t>face_x_instructions_text</t>
+  </si>
+  <si>
+    <t>face_c_instructions_text</t>
+  </si>
+  <si>
+    <t>breatheopen_instructions_text</t>
+  </si>
+  <si>
+    <t>song_x_instructions_text</t>
+  </si>
+  <si>
+    <t>song_c_instructions_text</t>
+  </si>
+  <si>
+    <t>sport_x_instructions_text</t>
+  </si>
+  <si>
+    <t>sport_c_instructions_text</t>
   </si>
   <si>
     <t>For the first task, please close your eyes and focus on your breathing. Breathe at a speed that is comfortable for you, and try to relax.
@@ -45,12 +71,6 @@
 When you feel ready to perform the real task, press the button on the clicker to begin.</t>
   </si>
   <si>
-    <t>In the next task, you will be imagining hearing a spoken phrase repeatedly in your mind. The phrase is: "A quick brown fox jumps over the lazy dog". Please keep your eyes open and look at the cross on the screen, you may blink normally.
-The task will last 10 seconds, after 10 seconds you will hear a tone.
-Try a short practice now. Imagine hearing "A quick brown fox jumps over the lazy dog" in your mind. During this time, try not to make any movements or sounds, including moving your lips.
-Press the button on the clicker when you're ready to begin.</t>
-  </si>
-  <si>
     <t>In the next task, you will be imagining hearing a spoken word repeatedly in your mind. Please keep your eyes open and look at the cross on the screen, you may blink normally.
 Take a few moments to choose a word. Please tell the experimenter which word you've chosen when you're ready.
 The task will last 10 seconds, after 10 seconds you will hear a tone.
@@ -64,16 +84,17 @@
 Press the button on the clicker when you're ready to begin.</t>
   </si>
   <si>
-    <t>face_c_instructions_text</t>
-  </si>
-  <si>
-    <t>face_x_instructions_text</t>
-  </si>
-  <si>
-    <t>word_c_instructions_text</t>
-  </si>
-  <si>
-    <t>word_x_instructions_text</t>
+    <t>In the next task, you will be imagining hearing a spoken phrase repeatedly in your mind. Please keep your eyes open and look at the cross on the screen, you may blink normally.
+Take a few moments to choose a phrase. Please tell the experimenter which phrase you've chosen when you're ready.
+The task will last 10 seconds, after 10 seconds you will hear a tone.
+Try a short practice now. Imagine hearing the phrase in your mind. During this time, try not to make any movements or sounds, including moving your lips.
+Press the button on the clicker when you're ready to begin.</t>
+  </si>
+  <si>
+    <t>In the next task, you will be imagining hearing a spoken phrase repeatedly in your mind. The phrase is: "A quick brown fox jumps over the lazy dog". Please keep your eyes open and look at the cross on the screen, you may blink normally.
+The task will last 10 seconds, after 10 seconds you will hear a tone.
+Try a short practice now. Imagine hearing "A quick brown fox jumps over the lazy dog" in your mind. During this time, try not to make any movements or sounds, including moving your lips.
+Press the button on the clicker when you're ready to begin.</t>
   </si>
   <si>
     <t>In the next task, you will be picturing a face of a person in your mind. Please keep your eyes open and look at the cross on the screen, you may blink normally.
@@ -89,7 +110,10 @@
 Press the button on the clicker when you're ready to begin.</t>
   </si>
   <si>
-    <t>song_x_instructions_text</t>
+    <t>For this task, please keep your eyes open, look at the cross on the screen, and focus on your breathing. You may blink normally. Breathe at a speed that is comfortable for you, and try to relax as best you can.
+The task will last 10 seconds.
+Before you start, do a short practice now. Breathe with your eyes open, relaxing your mind as you do. Do this for a few seconds.
+Press the button on the clicker when you're ready to begin.</t>
   </si>
   <si>
     <t>In the next task, you will be singing a song in your mind. You will not be actually singing the song out loud, but just doing so in your head. Please keep your eyes open and look at the cross on the screen, you may blink normally.
@@ -99,19 +123,10 @@
 Press the button on the clicker when you're ready to begin.</t>
   </si>
   <si>
-    <t>song_c_instructions_text</t>
-  </si>
-  <si>
     <t>In the next task, you will be singing the "Happy Birthday to You" song. You will not be actually singing the song out loud, but just doing so in your head. Please keep your eyes open and look at the cross on the screen, you may blink normally.
 The task will last 10 seconds, after 10 seconds you will hear a tone.
 Try a short practice now. Start singing the song "Happy Birthday to You" in your mind. During this time, try not to make any movements or sounds, including moving your lips.
 Press the button on the clicker when you're ready to begin.</t>
-  </si>
-  <si>
-    <t>sport_x_instructions_text</t>
-  </si>
-  <si>
-    <t>sport_c_instructions_text</t>
   </si>
   <si>
     <t>For this task, please choose a physical activity or motion you can imagine yourself doing. You will imagine attempting this activity repeatedly without actually moving. Please keep your eyes open and look at the cross on the screen, you may blink normally.
@@ -127,26 +142,11 @@
 Press the button on the clicker when you're ready to begin.</t>
   </si>
   <si>
+    <t>Next, please repeat this task. The instructions are the same.
+Press the button on the clicker when you're ready to begin.</t>
+  </si>
+  <si>
     <t>Please repeat this task once more. The instructions are the same.
-Press the button on the clicker when you're ready to begin.</t>
-  </si>
-  <si>
-    <t>breatheclosed_instructions_text</t>
-  </si>
-  <si>
-    <t>breatheopen_instructions_text</t>
-  </si>
-  <si>
-    <t>phrase_c_instructions_text</t>
-  </si>
-  <si>
-    <t>phrase_x_instructions_text</t>
-  </si>
-  <si>
-    <t>In the next task, you will be imagining hearing a spoken phrase repeatedly in your mind. Please keep your eyes open and look at the cross on the screen, you may blink normally.
-Take a few moments to choose a phrase. Please tell the experimenter which phrase you've chosen when you're ready.
-The task will last 10 seconds, after 10 seconds you will hear a tone.
-Try a short practice now. Imagine hearing the phrase in your mind. During this time, try not to make any movements or sounds, including moving your lips.
 Press the button on the clicker when you're ready to begin.</t>
   </si>
 </sst>
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,24 +165,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -206,32 +188,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -246,35 +204,11 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -294,44 +228,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -361,12 +295,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -405,491 +339,384 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="5" width="28.83203125" customWidth="1"/>
-    <col min="6" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" customWidth="1"/>
-    <col min="9" max="10" width="31.83203125" customWidth="1"/>
-    <col min="11" max="12" width="31.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="240" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="240" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="240" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="240" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>